--- a/data/trans_dic/P37A$medicoedad-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoedad-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2654966296501148</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4300125444190822</v>
+        <v>0.430012544419082</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1897868266747061</v>
@@ -697,7 +697,7 @@
         <v>0.2554771850680966</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3883558478668572</v>
+        <v>0.388355847866857</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.138223221494422</v>
+        <v>0.1371258347679713</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2166694843662149</v>
+        <v>0.2164745713382097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2127564750618494</v>
+        <v>0.2113437877605834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2971395496024774</v>
+        <v>0.2950888231799339</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1919508737711229</v>
+        <v>0.1928787219641638</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.214617405246085</v>
+        <v>0.2147501801573528</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2355396635291173</v>
+        <v>0.2382833967890188</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4035559658354808</v>
+        <v>0.4045755281105831</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1743699372276327</v>
+        <v>0.1742720847763397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.21979026556406</v>
+        <v>0.2224845157825243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2324196699736925</v>
+        <v>0.2345018106673963</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3665548425044037</v>
+        <v>0.3686696781504564</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.179416606983128</v>
+        <v>0.1811010482637232</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2760797909797824</v>
+        <v>0.274098758714017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2733409077101986</v>
+        <v>0.2742042104477362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3655632787206938</v>
+        <v>0.3654708759364977</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2371746587644529</v>
+        <v>0.2405240486482959</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2608606650585535</v>
+        <v>0.2601661417471549</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2973597795736735</v>
+        <v>0.3003686493042218</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4557806136708982</v>
+        <v>0.4568139777473086</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2058577801073718</v>
+        <v>0.2071154901015974</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2585512378604469</v>
+        <v>0.2579818450256512</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2756469803066262</v>
+        <v>0.2772283007300403</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4090501413721535</v>
+        <v>0.4091564535982061</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.05079328461408148</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08776759801400683</v>
+        <v>0.08776759801400684</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01880930273349874</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01348970774002007</v>
+        <v>0.01346973391916975</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0233513456294497</v>
+        <v>0.02385205280117171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03976909841578439</v>
+        <v>0.03965334168873335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07432917742651304</v>
+        <v>0.07287759379025463</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01229031540786818</v>
+        <v>0.01235780594988594</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01932855686651924</v>
+        <v>0.01914582832074687</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04071642836471546</v>
+        <v>0.04079357049202969</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07839418907494874</v>
+        <v>0.07755940931350006</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01423638787558916</v>
+        <v>0.01399268351637333</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0241637694904343</v>
+        <v>0.0239809137008246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04328125341896499</v>
+        <v>0.04306913826831571</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07798188625812177</v>
+        <v>0.07880964796855276</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02683663661514915</v>
+        <v>0.02662797247233661</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04048286765921986</v>
+        <v>0.04206196242994933</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05922338371601784</v>
+        <v>0.05843622801353303</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09504674586702098</v>
+        <v>0.09529845490695803</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02672197424399653</v>
+        <v>0.02668942113069686</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03579238182429043</v>
+        <v>0.03489862011686216</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06168652740495983</v>
+        <v>0.06379549579147739</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09762067674924457</v>
+        <v>0.09787642569446325</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0244496991341043</v>
+        <v>0.02369118613014126</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03552470891282334</v>
+        <v>0.03575341752812155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05701826514404707</v>
+        <v>0.05760476322793765</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09220708375683151</v>
+        <v>0.0934510473245095</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03388361723031012</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09838408883542819</v>
+        <v>0.09838408883542817</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01197068398119472</v>
+        <v>0.01157520922336969</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01847075970764795</v>
+        <v>0.01666677800019517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.027350135998316</v>
+        <v>0.02830230043451185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09800015439032345</v>
+        <v>0.09758301227914687</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01960577091535394</v>
+        <v>0.01829489347064563</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004348789634650117</v>
+        <v>0.004361919071708385</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01218318089579662</v>
+        <v>0.0117282384926975</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06240862352831511</v>
+        <v>0.06436884233317221</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0185419519984964</v>
+        <v>0.01838313696399105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01274780032148331</v>
+        <v>0.01303618466378067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02305515580830324</v>
+        <v>0.02379456642796851</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08532696869813644</v>
+        <v>0.08503709672558044</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04050232130075035</v>
+        <v>0.04113297067359755</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05451952623313664</v>
+        <v>0.05407747542184252</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06827536755696434</v>
+        <v>0.06772188196724221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1436672883782316</v>
+        <v>0.1403747007028265</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05256149854871998</v>
+        <v>0.05298590262569047</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02580340651470326</v>
+        <v>0.024922881747308</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04690381691859901</v>
+        <v>0.04495843900465</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09416027191045451</v>
+        <v>0.09439690634344924</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04006881117072884</v>
+        <v>0.03953325798524662</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03361927252835448</v>
+        <v>0.03441723069074794</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04758448051467518</v>
+        <v>0.04863284969292676</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1116164256697031</v>
+        <v>0.1121600531960629</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05588560710907647</v>
+        <v>0.05522563835083841</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08244024744127415</v>
+        <v>0.08173019630069611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08215578878147053</v>
+        <v>0.08183474186763813</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.120206994260115</v>
+        <v>0.1211550174718097</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08803966563814594</v>
+        <v>0.08710788386777465</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09374543902485294</v>
+        <v>0.09368707478382259</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09734274559676911</v>
+        <v>0.09633271436896758</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1515905487047658</v>
+        <v>0.152658742028957</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07361392191425796</v>
+        <v>0.07460706973572293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09125808704282745</v>
+        <v>0.09074092588447308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09216822436453502</v>
+        <v>0.09268556827291002</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1399588130946204</v>
+        <v>0.1396186357729312</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07208518335037416</v>
+        <v>0.07166536996176889</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1033730184275042</v>
+        <v>0.1033472282362431</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1007331522998722</v>
+        <v>0.1012743554209407</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.140460824420907</v>
+        <v>0.1417099547281351</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1077504567253004</v>
+        <v>0.1082211288988326</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1146580553465501</v>
+        <v>0.1145488152884485</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1185059337900009</v>
+        <v>0.1186660950451148</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1707881706946896</v>
+        <v>0.1710083763321995</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08710515162361278</v>
+        <v>0.08757061138066542</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1053680609163792</v>
+        <v>0.1047569968142343</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1069227325283309</v>
+        <v>0.1072976389789392</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1538698076738995</v>
+        <v>0.1537672901875776</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>142608</v>
+        <v>141476</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>211175</v>
+        <v>210985</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>160492</v>
+        <v>159427</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>171904</v>
+        <v>170717</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>252437</v>
+        <v>253657</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>287115</v>
+        <v>287292</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>234282</v>
+        <v>237011</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>331738</v>
+        <v>332576</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>409217</v>
+        <v>408988</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>508252</v>
+        <v>514482</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>406504</v>
+        <v>410145</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>513385</v>
+        <v>516347</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>185108</v>
+        <v>186846</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>269079</v>
+        <v>267148</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>206194</v>
+        <v>206845</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>211489</v>
+        <v>211436</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>311911</v>
+        <v>316316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>348979</v>
+        <v>348049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>295772</v>
+        <v>298765</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>374669</v>
+        <v>375518</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>483114</v>
+        <v>486066</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>597884</v>
+        <v>596568</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>482108</v>
+        <v>484874</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>572902</v>
+        <v>573051</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22844</v>
+        <v>22810</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45861</v>
+        <v>46844</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82576</v>
+        <v>82336</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>165796</v>
+        <v>162558</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19513</v>
+        <v>19620</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>33976</v>
+        <v>33655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>80956</v>
+        <v>81110</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>170225</v>
+        <v>168412</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>46711</v>
+        <v>45911</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>89932</v>
+        <v>89251</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>175925</v>
+        <v>175062</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>343273</v>
+        <v>346917</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45446</v>
+        <v>45092</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>79507</v>
+        <v>82608</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>122971</v>
+        <v>121336</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>212008</v>
+        <v>212569</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42426</v>
+        <v>42374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>62916</v>
+        <v>61345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>122651</v>
+        <v>126845</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>211973</v>
+        <v>212528</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>80222</v>
+        <v>77733</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>132214</v>
+        <v>133066</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>231761</v>
+        <v>234145</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>405892</v>
+        <v>411368</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6601</v>
+        <v>6383</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8888</v>
+        <v>8020</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14957</v>
+        <v>15478</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>69736</v>
+        <v>69439</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9340</v>
+        <v>8716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6690</v>
+        <v>6440</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45863</v>
+        <v>47303</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19058</v>
+        <v>18895</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11981</v>
+        <v>12252</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25269</v>
+        <v>26079</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>123422</v>
+        <v>123003</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22333</v>
+        <v>22681</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26234</v>
+        <v>26021</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37339</v>
+        <v>37036</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>102232</v>
+        <v>99889</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25041</v>
+        <v>25243</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11834</v>
+        <v>11430</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25757</v>
+        <v>24688</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69196</v>
+        <v>69370</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>41184</v>
+        <v>40633</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31596</v>
+        <v>32346</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>52154</v>
+        <v>53303</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>161449</v>
+        <v>162235</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>183112</v>
+        <v>180949</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>281928</v>
+        <v>279499</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>277491</v>
+        <v>276406</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>423211</v>
+        <v>426548</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>297503</v>
+        <v>294355</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>333193</v>
+        <v>332985</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>343824</v>
+        <v>340257</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>565176</v>
+        <v>569159</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>489955</v>
+        <v>496565</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>636435</v>
+        <v>632828</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>636856</v>
+        <v>640431</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1014560</v>
+        <v>1012094</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>236190</v>
+        <v>234815</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>353513</v>
+        <v>353425</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>340238</v>
+        <v>342066</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>494518</v>
+        <v>498916</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>364110</v>
+        <v>365701</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>407521</v>
+        <v>407133</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>418575</v>
+        <v>419141</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>636751</v>
+        <v>637572</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>579749</v>
+        <v>582847</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>734838</v>
+        <v>730577</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>738806</v>
+        <v>741396</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1115401</v>
+        <v>1114658</v>
       </c>
     </row>
     <row r="20">
